--- a/document/sheets/Level.xlsx
+++ b/document/sheets/Level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="12460"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>决定了刷新不同类型房间的概率</t>
         </r>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>关卡ID</t>
   </si>
@@ -83,6 +83,9 @@
 3=祝福女神，三选一一个只能在本层使用的祝福</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -99,6 +102,24 @@
   </si>
   <si>
     <t>1;3;4</t>
+  </si>
+  <si>
+    <t>第1层出生点</t>
+  </si>
+  <si>
+    <t>第2层出生点</t>
+  </si>
+  <si>
+    <t>第1层BOSS房</t>
+  </si>
+  <si>
+    <t>第2层BOSS房</t>
+  </si>
+  <si>
+    <t>第3层BOSS房</t>
+  </si>
+  <si>
+    <t>第4层BOSS房</t>
   </si>
 </sst>
 </file>
@@ -111,14 +132,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,7 +287,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -581,157 +595,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1075,19 +1086,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="6" max="7" width="20.1607142857143" customWidth="1"/>
-    <col min="8" max="8" width="62.6428571428571" customWidth="1"/>
+    <col min="6" max="7" width="20.1574074074074" customWidth="1"/>
+    <col min="8" max="8" width="62.6388888888889" customWidth="1"/>
+    <col min="9" max="9" width="21.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="140" customHeight="1" spans="1:8">
+    <row r="1" ht="140" customHeight="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1109,36 +1121,39 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1153,150 +1168,248 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
+      <c r="F6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
+        <v>203</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:6">
+      <c r="A8">
+        <v>303</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>101</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>201</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>202</v>
-      </c>
-      <c r="B8">
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>199</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>203</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>299</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:6">
-      <c r="A10">
-        <v>303</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>399</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>499</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/document/sheets/Level.xlsx
+++ b/document/sheets/Level.xlsx
@@ -32,7 +32,7 @@
     <author>tianchanglin</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>关卡ID</t>
   </si>
@@ -72,7 +72,22 @@
     <t>非肉鸽的固定约束</t>
   </si>
   <si>
-    <t>敌人id</t>
+    <t>NPC名称</t>
+  </si>
+  <si>
+    <t>NPC坐标</t>
+  </si>
+  <si>
+    <t>NPC朝向</t>
+  </si>
+  <si>
+    <t>敌人名称</t>
+  </si>
+  <si>
+    <t>敌人坐标</t>
+  </si>
+  <si>
+    <t>敌人朝向</t>
   </si>
   <si>
     <t>肉鸽房间的刷新权重
@@ -98,10 +113,34 @@
     <t>string</t>
   </si>
   <si>
+    <t>篝火</t>
+  </si>
+  <si>
+    <t>-3|2|4.5</t>
+  </si>
+  <si>
+    <t>3|2|4.5</t>
+  </si>
+  <si>
+    <t>冥界看门人</t>
+  </si>
+  <si>
     <t>0,30|1,80|2,60|3,100</t>
   </si>
   <si>
     <t>1;3;4</t>
+  </si>
+  <si>
+    <t>美杜莎</t>
+  </si>
+  <si>
+    <t>太阳骑士</t>
+  </si>
+  <si>
+    <t>宝箱</t>
+  </si>
+  <si>
+    <t>BOSS-刻耳柏洛斯</t>
   </si>
   <si>
     <t>第1层出生点</t>
@@ -1086,20 +1125,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="6" max="7" width="20.1574074074074" customWidth="1"/>
-    <col min="8" max="8" width="62.6388888888889" customWidth="1"/>
-    <col min="9" max="9" width="21.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="20.1574074074074" customWidth="1"/>
+    <col min="7" max="7" width="14.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="13.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="16.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="17.6666666666667" customWidth="1"/>
+    <col min="11" max="12" width="20.1574074074074" customWidth="1"/>
+    <col min="13" max="13" width="53.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="21.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="140" customHeight="1" spans="1:9">
+    <row r="1" ht="140" customHeight="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1121,37 +1165,70 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1170,8 +1247,17 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1190,11 +1276,20 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>13</v>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1211,10 +1306,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>202</v>
       </c>
@@ -1233,8 +1337,17 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>203</v>
       </c>
@@ -1253,8 +1366,17 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" customFormat="1" spans="1:6">
+    <row r="8" customFormat="1" spans="1:12">
       <c r="A8">
         <v>303</v>
       </c>
@@ -1273,8 +1395,17 @@
       <c r="F8">
         <v>0</v>
       </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>101</v>
       </c>
@@ -1293,11 +1424,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>15</v>
+      <c r="N9" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>201</v>
       </c>
@@ -1316,11 +1447,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>16</v>
+      <c r="N10" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>199</v>
       </c>
@@ -1337,13 +1468,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>299</v>
       </c>
@@ -1360,13 +1491,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>399</v>
       </c>
@@ -1383,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>499</v>
       </c>
@@ -1406,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/document/sheets/Level.xlsx
+++ b/document/sheets/Level.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>关卡ID</t>
   </si>
@@ -72,22 +72,22 @@
     <t>非肉鸽的固定约束</t>
   </si>
   <si>
-    <t>NPC名称</t>
-  </si>
-  <si>
-    <t>NPC坐标</t>
-  </si>
-  <si>
-    <t>NPC朝向</t>
-  </si>
-  <si>
     <t>敌人名称</t>
   </si>
   <si>
-    <t>敌人坐标</t>
-  </si>
-  <si>
-    <t>敌人朝向</t>
+    <t>调用的EnemyCardsConfig文件名</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>NPC名称（第一版不做）</t>
+  </si>
+  <si>
+    <t>NPC坐标（第一版不做）</t>
+  </si>
+  <si>
+    <t>NPC朝向（第一版不做）</t>
   </si>
   <si>
     <t>肉鸽房间的刷新权重
@@ -113,6 +113,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>小杂鱼</t>
+  </si>
+  <si>
+    <t>EnemyCardsConfig</t>
+  </si>
+  <si>
     <t>篝火</t>
   </si>
   <si>
@@ -122,7 +128,10 @@
     <t>3|2|4.5</t>
   </si>
   <si>
-    <t>冥界看门人</t>
+    <t>精英怪</t>
+  </si>
+  <si>
+    <t>EnemyCardsConfig01</t>
   </si>
   <si>
     <t>0,30|1,80|2,60|3,100</t>
@@ -131,16 +140,16 @@
     <t>1;3;4</t>
   </si>
   <si>
-    <t>美杜莎</t>
+    <t>首领怪（刻耳柏洛斯）</t>
+  </si>
+  <si>
+    <t>EnemyCardsConfig02</t>
   </si>
   <si>
     <t>太阳骑士</t>
   </si>
   <si>
     <t>宝箱</t>
-  </si>
-  <si>
-    <t>BOSS-刻耳柏洛斯</t>
   </si>
   <si>
     <t>第1层出生点</t>
@@ -329,12 +338,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -655,7 +676,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,16 +700,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -697,93 +718,111 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1128,17 +1167,18 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="6" max="6" width="20.1574074074074" customWidth="1"/>
-    <col min="7" max="7" width="14.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="13.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="16.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="17.6666666666667" customWidth="1"/>
-    <col min="11" max="12" width="20.1574074074074" customWidth="1"/>
+    <col min="7" max="7" width="17.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="24.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7777777777778" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.3333333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.8888888888889" style="2" customWidth="1"/>
     <col min="13" max="13" width="53.1111111111111" customWidth="1"/>
     <col min="14" max="14" width="21.7777777777778" customWidth="1"/>
   </cols>
@@ -1150,10 +1190,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1162,25 +1202,25 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -1209,26 +1249,20 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1253,8 +1287,17 @@
       <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1">
+        <v>300</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1276,20 +1319,20 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1">
+        <v>450</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1306,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1">
+        <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>202</v>
       </c>
@@ -1337,17 +1380,17 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>203</v>
       </c>
@@ -1366,14 +1409,14 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:12">
@@ -1395,15 +1438,10 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
@@ -1425,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1448,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1468,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1491,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1514,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1537,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
